--- a/biology/Botanique/Echinopsis_chiloensis/Echinopsis_chiloensis.xlsx
+++ b/biology/Botanique/Echinopsis_chiloensis/Echinopsis_chiloensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echinopsis chiloensis est une espèce de plantes à fleurs de la famille des Cactaceae. C'est un cactus qui est originaire du Chili. Son nom vient du grec ekhinos, qui signifie hérisson, oursin, et du suffixe opsis, vision, vue (de l'aspect d'un oursin, en référence aux espèces globuleuses du genre). Le terme de chiloensis fait référence à l'île de Grande Chiloé, située dans les eaux territoriales du Chili, d'où était censé provenir l'exemplaire en culture à Turin. Ce spécimen a servi de base à la description du taxon d'origine[1]. Sur cette île côtière chilienne ne pousse cependant aucun cactus. Le nom plus approprié de chilensis ('du Chili') a, de ce fait, souvent été donné à ce cactus cierge, en premier lieu semble-t-il par le botaniste Pfeiffer en 1837. Mais si le code international de nomenclature botanique autorise certaines corrections orthographiques, les usages n'autorisent pas un changement du sens du nom, même en cas d'erreur de l'auteur de ce nom.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echinopsis chiloensis est une espèce de plantes à fleurs de la famille des Cactaceae. C'est un cactus qui est originaire du Chili. Son nom vient du grec ekhinos, qui signifie hérisson, oursin, et du suffixe opsis, vision, vue (de l'aspect d'un oursin, en référence aux espèces globuleuses du genre). Le terme de chiloensis fait référence à l'île de Grande Chiloé, située dans les eaux territoriales du Chili, d'où était censé provenir l'exemplaire en culture à Turin. Ce spécimen a servi de base à la description du taxon d'origine. Sur cette île côtière chilienne ne pousse cependant aucun cactus. Le nom plus approprié de chilensis ('du Chili') a, de ce fait, souvent été donné à ce cactus cierge, en premier lieu semble-t-il par le botaniste Pfeiffer en 1837. Mais si le code international de nomenclature botanique autorise certaines corrections orthographiques, les usages n'autorisent pas un changement du sens du nom, même en cas d'erreur de l'auteur de ce nom.
 </t>
         </is>
       </c>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des sous-espèces
-Selon NCBI  (1 déc. 2011)[2] :
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (1 déc. 2011) :
 sous-espèce Echinopsis chiloensis subsp. litoralis
-sous-espèce Echinopsis chiloensis subsp. skottsbergii
-Synonymes
-Cactus chiloensis Colla, Hortus Ripul. App. 2: 342. 1826 syn. sec. Schlumpberger 2012
+sous-espèce Echinopsis chiloensis subsp. skottsbergii</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Echinopsis_chiloensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinopsis_chiloensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cactus chiloensis Colla, Hortus Ripul. App. 2: 342. 1826 syn. sec. Schlumpberger 2012
 Cereus chiloensis (Colla) DC., Prodr. 3: 465. 1828 syn. sec. Kew WCVP (2019)
 Echinocereus chiloensis (Colla) Console &amp; Lem. in Rev. Hort. 36: 173. 1864 syn. sec. Korotkova 2021
 Trichocereus chiloensis (Colla) Britton &amp; Rose, Cactaceae 2: 137–139, f. 199–200. 1920 syn. sec. Kew WCVP (2019)
